--- a/ClassHierarchy.xlsx
+++ b/ClassHierarchy.xlsx
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Table</t>
   </si>
   <si>
-    <t xml:space="preserve">std::map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-table: std::map &lt;unsigned int, std::list&lt;Budget&gt;&gt;</t>
+    <t xml:space="preserve">-table: std::multimap &lt;unsigned int, Budget*&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::multimap</t>
   </si>
   <si>
     <r>
@@ -71,7 +71,53 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">+find(a: int, b: int): Budget*.</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+find</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">a: int, b: int</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">: int</t>
+    </r>
   </si>
   <si>
     <r>
@@ -110,18 +156,444 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">): int</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+show</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+counttax</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">num: unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">): double</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-date: std::tm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-sorname: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-type: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-name: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-summ: unsigned int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-lastname: std::string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setDate</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">dd: int, mm: int</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">)</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+show</t>
+    <t xml:space="preserve">-workplace: std::string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setType</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-post: std::string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setSumm</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">sum: unsigned int</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-ptr: std::list&lt;Payment&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getType(): std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#virtual print(c: std::ostream&amp;) const: std::ostream&amp;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getSum(): unsigned int</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setName</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setSorname</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setLastname</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setWorkplace</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setPost</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">str: std::string</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+getInfo</t>
     </r>
     <r>
       <rPr>
@@ -135,379 +607,32 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Payment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">std::list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-date: std::tm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-sorname: std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-type: std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-name: std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-summ: unsigned int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-lastname: std::string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setDate</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">dd: int, mm: int</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-workplace: std::string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setType</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-post: std::string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setSumm</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">sum: unsigned int</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-ptr: std::list&lt;Payment&gt;.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+getType(): std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#virtual print(c: std::ostream&amp;) const: std::ostream&amp;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+getSum(): unsigned int</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setName</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setSorname</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setLastname</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setWorkplace</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setPost</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+getInfo</t>
+    <t xml:space="preserve">std::tm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+virtual getType() const: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getGain() const: unsigned int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getName() const: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getWork() const: std::string</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+addPayment</t>
     </r>
     <r>
       <rPr>
@@ -521,43 +646,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">std::tm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+virtual getType() const: std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+getGain() const: unsigned int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+getName() const: std::string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+getWork() const: std::string</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+addPayment</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">()</t>
-    </r>
+    <t xml:space="preserve">+getOnlyName() const: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getOnlySorame() const: std::string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+getOnlyLastname() const: std::string</t>
   </si>
   <si>
     <t xml:space="preserve">Contract</t>
@@ -1000,15 +1095,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>840240</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>846360</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>840240</xdr:colOff>
+      <xdr:colOff>846360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1017,7 +1112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3567240" y="5803920"/>
+          <a:off x="3573360" y="5996880"/>
           <a:ext cx="0" cy="810360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1041,15 +1136,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>963720</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>963720</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1058,7 +1153,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7141680" y="6265080"/>
+          <a:off x="7154640" y="6476040"/>
           <a:ext cx="0" cy="349200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1082,15 +1177,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1248120</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>1254240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1248120</xdr:colOff>
+      <xdr:colOff>1254240</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1099,7 +1194,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3975120" y="5798160"/>
+          <a:off x="3981240" y="6015240"/>
           <a:ext cx="0" cy="461520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1123,15 +1218,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1227600</xdr:colOff>
+      <xdr:colOff>1245960</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>951120</xdr:colOff>
+      <xdr:colOff>969480</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1140,8 +1235,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3954600" y="6283080"/>
-          <a:ext cx="3187080" cy="12240"/>
+          <a:off x="3972960" y="6464160"/>
+          <a:ext cx="3187440" cy="12240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1164,15 +1259,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1173600</xdr:colOff>
+      <xdr:colOff>963360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>362160</xdr:rowOff>
+      <xdr:rowOff>367920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1173600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:colOff>995040</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1180,9 +1275,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7364160" y="6992640"/>
-          <a:ext cx="0" cy="972720"/>
+        <a:xfrm flipH="1">
+          <a:off x="7154280" y="7197840"/>
+          <a:ext cx="31680" cy="1537200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1205,15 +1300,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1162800</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:colOff>963360</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:colOff>766080</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1221,9 +1316,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7353360" y="7966080"/>
-          <a:ext cx="3978000" cy="0"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7154280" y="8723160"/>
+          <a:ext cx="4165920" cy="15120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1246,15 +1341,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>766080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>747720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>778320</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:colOff>752400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1262,9 +1357,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11319120" y="7650720"/>
-          <a:ext cx="12240" cy="299520"/>
+        <a:xfrm flipH="1">
+          <a:off x="11301840" y="8331120"/>
+          <a:ext cx="4680" cy="403560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1287,15 +1382,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1396080</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:colOff>1383840</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1408320</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:colOff>1398240</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1303,9 +1398,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11949120" y="7656120"/>
-          <a:ext cx="12240" cy="810720"/>
+        <a:xfrm flipV="1">
+          <a:off x="11937960" y="8337240"/>
+          <a:ext cx="14400" cy="1137240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1328,15 +1423,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1408320</xdr:colOff>
+      <xdr:colOff>1411920</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1408320</xdr:colOff>
+      <xdr:colOff>1411920</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1345,7 +1440,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11961360" y="3319920"/>
+          <a:off x="11966040" y="3528000"/>
           <a:ext cx="0" cy="785880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1369,15 +1464,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>852480</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>883440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>345960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:colOff>898560</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1386,8 +1481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16727400" y="4488840"/>
-          <a:ext cx="12240" cy="3467880"/>
+          <a:off x="16760160" y="4663800"/>
+          <a:ext cx="15120" cy="4071240"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1411,14 +1506,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2198880</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>867600</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:colOff>916920</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1427,8 +1522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12751920" y="7954200"/>
-          <a:ext cx="3990600" cy="0"/>
+          <a:off x="12753000" y="8720280"/>
+          <a:ext cx="4040640" cy="20880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1451,15 +1546,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2186640</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:colOff>2213280</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2211480</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>2214000</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1467,9 +1562,9 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12739680" y="7625880"/>
-          <a:ext cx="24840" cy="374040"/>
+        <a:xfrm flipH="1">
+          <a:off x="12767400" y="8335440"/>
+          <a:ext cx="720" cy="385920"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1492,15 +1587,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
+      <xdr:colOff>852480</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3960</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
+      <xdr:colOff>852480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1509,7 +1604,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16739640" y="2487240"/>
+          <a:off x="16729200" y="2698200"/>
           <a:ext cx="0" cy="1117080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1535,13 +1630,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>2606760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>2606760</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1550,7 +1645,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13159800" y="3301920"/>
+          <a:off x="13160880" y="3494520"/>
           <a:ext cx="0" cy="312120"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1574,15 +1669,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1914840</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>1911240</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1914840</xdr:colOff>
+      <xdr:colOff>1911240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1591,7 +1686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12467880" y="3301920"/>
+          <a:off x="12465360" y="3510000"/>
           <a:ext cx="0" cy="461520"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1615,15 +1710,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>852480</xdr:colOff>
+      <xdr:colOff>867600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>864720</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:colOff>870840</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1632,8 +1727,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16727400" y="3780720"/>
-          <a:ext cx="12240" cy="324360"/>
+          <a:off x="16744320" y="3975480"/>
+          <a:ext cx="3240" cy="346680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1656,15 +1751,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1914840</xdr:colOff>
+      <xdr:colOff>1896480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>855000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:colOff>873720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1673,8 +1768,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12467880" y="3755880"/>
-          <a:ext cx="4262040" cy="24840"/>
+          <a:off x="12450600" y="3972960"/>
+          <a:ext cx="4299840" cy="20880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1697,15 +1792,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2606760</xdr:colOff>
+      <xdr:colOff>2612880</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>867600</xdr:colOff>
+      <xdr:colOff>873720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1714,8 +1809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13159800" y="3592800"/>
-          <a:ext cx="3582720" cy="12600"/>
+          <a:off x="13167000" y="3798000"/>
+          <a:ext cx="3583440" cy="12600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1738,15 +1833,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1159200</xdr:colOff>
+      <xdr:colOff>1146960</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1342800</xdr:colOff>
+      <xdr:colOff>1330200</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1755,8 +1850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3886200" y="5792760"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="3873960" y="5997960"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1805,15 +1900,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>752760</xdr:colOff>
+      <xdr:colOff>740520</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>936360</xdr:colOff>
+      <xdr:colOff>923760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1822,8 +1917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3479760" y="5805000"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="3467520" y="6004080"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1872,15 +1967,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1316880</xdr:colOff>
+      <xdr:colOff>1324800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1500480</xdr:colOff>
+      <xdr:colOff>1508040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1889,8 +1984,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11869920" y="3305520"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="11878920" y="3505680"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1939,15 +2034,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1835640</xdr:colOff>
+      <xdr:colOff>1823760</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>1440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2019240</xdr:colOff>
+      <xdr:colOff>2007000</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,8 +2051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12388680" y="3305880"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="12377880" y="3506400"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2008,13 +2103,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>2518200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2701800</xdr:colOff>
+      <xdr:colOff>2701440</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2023,8 +2118,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13071240" y="3305160"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="13072320" y="3502080"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2073,15 +2168,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2103480</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:colOff>2122920</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2287080</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:colOff>2306160</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2090,8 +2185,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12656520" y="7647480"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="12677040" y="8341920"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2140,15 +2235,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:colOff>650880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>871560</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:colOff>834120</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2157,8 +2252,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11241000" y="7638840"/>
-          <a:ext cx="183600" cy="220680"/>
+          <a:off x="11205000" y="8326800"/>
+          <a:ext cx="183240" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2207,14 +2302,14 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1304640</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:colOff>1298520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1491480</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:colOff>1485000</xdr:colOff>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -2224,14 +2319,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11857680" y="7651440"/>
-          <a:ext cx="186840" cy="232920"/>
+          <a:off x="11852640" y="8339040"/>
+          <a:ext cx="186480" cy="232560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst/>
           <a:ahLst/>
-          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
             <a:path w="521" h="649">
               <a:moveTo>
@@ -2275,10 +2370,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="H14:P54"/>
+  <dimension ref="H13:P59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O49" activeCellId="0" sqref="O49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2292,202 +2387,222 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="42.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="21.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="32.65"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
   </cols>
   <sheetData>
+    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M14" s="1" t="s">
-        <v>0</v>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M15" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M18" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M19" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H25" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H26" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H27" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H29" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H30" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H31" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H32" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H33" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M34" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M36" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M38" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M41" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M43" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M49" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M50" s="2" t="s">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M44" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M51" s="2" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M45" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M52" s="2" t="s">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M46" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M53" s="2" t="s">
+    <row r="54" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M54" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M54" s="2" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M55" s="2" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M57" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M59" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/ClassHierarchy.xlsx
+++ b/ClassHierarchy.xlsx
@@ -426,14 +426,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">+setSorname</t>
+    <t xml:space="preserve">+setSurname(str: std::string)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">+setLastname</t>
     </r>
     <r>
       <rPr>
@@ -473,7 +476,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+setLastname</t>
+      <t xml:space="preserve">+setWorkplace</t>
     </r>
     <r>
       <rPr>
@@ -513,7 +516,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+setWorkplace</t>
+      <t xml:space="preserve">+setPost</t>
     </r>
     <r>
       <rPr>
@@ -553,46 +556,6 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">+setPost</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">str: std::string</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">+getInfo</t>
     </r>
     <r>
@@ -649,7 +612,7 @@
     <t xml:space="preserve">+getOnlyName() const: std::string</t>
   </si>
   <si>
-    <t xml:space="preserve">+getOnlySorame() const: std::string</t>
+    <t xml:space="preserve">+getOnlySurname() const: std::string</t>
   </si>
   <si>
     <t xml:space="preserve">+getOnlyLastname() const: std::string</t>
@@ -1669,129 +1632,6 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1911240</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1911240</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12465360" y="3510000"/>
-          <a:ext cx="0" cy="461520"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>867600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>870840</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16744320" y="3975480"/>
-          <a:ext cx="3240" cy="346680"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1896480</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>873720</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12450600" y="3972960"/>
-          <a:ext cx="4299840" cy="20880"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
       <xdr:colOff>2612880</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>130320</xdr:rowOff>
@@ -1804,7 +1644,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Line 1"/>
+        <xdr:cNvPr id="14" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1839,19 +1679,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1330200</xdr:colOff>
+      <xdr:colOff>1329840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3873960" y="5997960"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1906,19 +1746,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>923760</xdr:colOff>
+      <xdr:colOff>923400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3467520" y="6004080"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1973,86 +1813,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1508040</xdr:colOff>
+      <xdr:colOff>1507680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11878920" y="3505680"/>
-          <a:ext cx="183240" cy="220320"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="10800" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="21600"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="10800"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="10800" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1823760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2007000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12377880" y="3506400"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2107,19 +1880,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2701440</xdr:colOff>
+      <xdr:colOff>2701080</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13072320" y="3502080"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2174,19 +1947,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2306160</xdr:colOff>
+      <xdr:colOff>2305800</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12677040" y="8341920"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2241,19 +2014,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>834120</xdr:colOff>
+      <xdr:colOff>833760</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11205000" y="8326800"/>
-          <a:ext cx="183240" cy="220320"/>
+          <a:ext cx="182880" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2308,19 +2081,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1485000</xdr:colOff>
+      <xdr:colOff>1484640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11852640" y="8339040"/>
-          <a:ext cx="186480" cy="232560"/>
+          <a:ext cx="186120" cy="232200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2372,8 +2145,8 @@
   </sheetPr>
   <dimension ref="H13:P59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ClassHierarchy.xlsx
+++ b/ClassHierarchy.xlsx
@@ -233,7 +233,7 @@
     <t xml:space="preserve">-date: std::tm</t>
   </si>
   <si>
-    <t xml:space="preserve">-sorname: std::string</t>
+    <t xml:space="preserve">-surname: std::string</t>
   </si>
   <si>
     <t xml:space="preserve">-type: std::string</t>
@@ -1679,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1329840</xdr:colOff>
+      <xdr:colOff>1329480</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3873960" y="5997960"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1746,9 +1746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>923400</xdr:colOff>
+      <xdr:colOff>923040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>57240</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1758,7 +1758,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3467520" y="6004080"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1813,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1507680</xdr:colOff>
+      <xdr:colOff>1507320</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1825,7 +1825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11878920" y="3505680"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1880,9 +1880,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2701080</xdr:colOff>
+      <xdr:colOff>2700720</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1892,7 +1892,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13072320" y="3502080"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1947,9 +1947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>2305800</xdr:colOff>
+      <xdr:colOff>2305440</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1959,7 +1959,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12677040" y="8341920"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2014,9 +2014,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>833760</xdr:colOff>
+      <xdr:colOff>833400</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2026,7 +2026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11205000" y="8326800"/>
-          <a:ext cx="182880" cy="219960"/>
+          <a:ext cx="182520" cy="219600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2081,9 +2081,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1484640</xdr:colOff>
+      <xdr:colOff>1484280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2093,7 +2093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11852640" y="8339040"/>
-          <a:ext cx="186120" cy="232200"/>
+          <a:ext cx="185760" cy="231840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2145,8 +2145,8 @@
   </sheetPr>
   <dimension ref="H13:P59"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P20" activeCellId="0" sqref="P20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K13" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R41" activeCellId="0" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
